--- a/resources/Register.xlsx
+++ b/resources/Register.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ampere" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Register 16 bit</t>
   </si>
@@ -31,13 +31,28 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ampere</t>
+  </si>
+  <si>
+    <t>Current consumption</t>
+  </si>
+  <si>
+    <t>Power relay</t>
+  </si>
+  <si>
+    <t>Both relay are running</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +76,14 @@
     </font>
     <font>
       <sz val="20"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -99,10 +122,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -408,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -493,13 +517,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
